--- a/server/Final_Checkin_Report.xlsx
+++ b/server/Final_Checkin_Report.xlsx
@@ -2052,13 +2052,13 @@
         <v>thunh</v>
       </c>
       <c r="G57" t="str">
-        <v/>
+        <v>Cộng hoà xã hội chủ nghĩa Việt Nam. Độc lập tự do hạnh phúc</v>
       </c>
       <c r="H57" t="str">
-        <v/>
+        <v>/processed_images/processed_1770103463740_image-1770103463322-123365638.jpg</v>
       </c>
       <c r="I57" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="58">
@@ -2104,13 +2104,13 @@
         <v>liendt2</v>
       </c>
       <c r="G59" t="str">
-        <v/>
+        <v>Bxbxbjxbxbxbxbbxbxnznxndnzbbdbd dndnhd djbdhjd dndndhdb</v>
       </c>
       <c r="H59" t="str">
-        <v/>
+        <v>/processed_images/processed_1770103336864_image-1770103336716-337229989.jpg</v>
       </c>
       <c r="I59" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="60">
@@ -2130,13 +2130,13 @@
         <v>lent7</v>
       </c>
       <c r="G60" t="str">
-        <v/>
+        <v>Bdhshs djdjjdj djdjdjd đjdjdjjdj djdjdjdj đjdjdjd djdjjedj djjdjdj</v>
       </c>
       <c r="H60" t="str">
-        <v/>
+        <v>/processed_images/processed_1770103506682_image-1770103506537-923468700.jpg</v>
       </c>
       <c r="I60" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="61">
@@ -2156,13 +2156,13 @@
         <v>trangtt89</v>
       </c>
       <c r="G61" t="str">
-        <v/>
+        <v>Bdbdbdh dhdjdjs jdjdjdjd djdjdjdj djdjdjdjjdjdjdjdjdjdjjdhdhdhd</v>
       </c>
       <c r="H61" t="str">
-        <v/>
+        <v>/processed_images/processed_1770103541978_image-1770103541664-571970627.jpg</v>
       </c>
       <c r="I61" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="62">
@@ -2182,13 +2182,13 @@
         <v>khacpx</v>
       </c>
       <c r="G62" t="str">
-        <v/>
+        <v>Chúc ES thành công, thành công, đại thành công</v>
       </c>
       <c r="H62" t="str">
-        <v/>
+        <v>/processed_images/processed_1770109313054_image-1770109313050-565074024.jpg</v>
       </c>
       <c r="I62" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="63">
@@ -2260,10 +2260,10 @@
         <v>khangdm2</v>
       </c>
       <c r="G65" t="str">
-        <v>Chúc mừng</v>
+        <v>Minh Khang chúc toàn thể ES một năm mới An Khang Thịnh Vượng</v>
       </c>
       <c r="H65" t="str">
-        <v>/processed_images/processed_1770091761562_image-1770091760695-875992431.jpg</v>
+        <v>/processed_images/processed_1770111950260_image-1770111950256-580423170.jpg</v>
       </c>
       <c r="I65" t="str">
         <v>YES</v>
@@ -5198,10 +5198,10 @@
         <v>huyenntt195</v>
       </c>
       <c r="G178" t="str">
-        <v>Chúc miwfng nam moi nhe tat ca moi nguoi</v>
+        <v>Chúc FIS 2026 thành công rực rỡ vô cùng</v>
       </c>
       <c r="H178" t="str">
-        <v>/processed_images/processed_1770092270926_image-1770092270098-291493042.jpg</v>
+        <v>/processed_images/processed_1770113615478_image-1770113615263-125763204.jpg</v>
       </c>
       <c r="I178" t="str">
         <v>YES</v>
@@ -5562,13 +5562,13 @@
         <v xml:space="preserve"> lamtp4</v>
       </c>
       <c r="G192" t="str">
-        <v/>
+        <v>Chúc FPT tuyệt vời tăng lương nhân viên !!!!!!!!!!!!!!!!@!!!</v>
       </c>
       <c r="H192" t="str">
-        <v/>
+        <v>/processed_images/processed_1770113106224_image-1770113105551-807972585.jpg</v>
       </c>
       <c r="I192" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="193">
